--- a/data/trans_orig/P57B2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P57B2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>311663</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>281336</v>
+        <v>281947</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>338878</v>
+        <v>340503</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4558809038038169</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4115218345485613</v>
+        <v>0.4124142054051757</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4956903064171044</v>
+        <v>0.4980670172397601</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>434</v>
@@ -762,19 +762,19 @@
         <v>304386</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>283060</v>
+        <v>283733</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>329470</v>
+        <v>327172</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4166854229974283</v>
+        <v>0.4166854229974284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3874917502588759</v>
+        <v>0.3884135166681061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4510235665007231</v>
+        <v>0.4478784087853127</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>717</v>
@@ -783,19 +783,19 @@
         <v>616048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>578047</v>
+        <v>578588</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>651038</v>
+        <v>653928</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4356339822534006</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4087616578967391</v>
+        <v>0.4091445439041995</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4603770846516292</v>
+        <v>0.4624207803570959</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>249507</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>223093</v>
+        <v>224059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>278152</v>
+        <v>278453</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3649634148778298</v>
+        <v>0.3649634148778297</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3263270651175267</v>
+        <v>0.3277400298704407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4068640925438495</v>
+        <v>0.4073039484119305</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>495</v>
@@ -833,19 +833,19 @@
         <v>280932</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>258622</v>
+        <v>261787</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>301686</v>
+        <v>303007</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3845781596392138</v>
+        <v>0.3845781596392139</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.354037477590263</v>
+        <v>0.3583708326560618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4129892663495507</v>
+        <v>0.4147976822751503</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>775</v>
@@ -854,19 +854,19 @@
         <v>530438</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>498336</v>
+        <v>496318</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>564914</v>
+        <v>563703</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3750956594694167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3523946915384622</v>
+        <v>0.350968119068497</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3994750361320154</v>
+        <v>0.3986183658381013</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>97291</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>82442</v>
+        <v>81602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>116227</v>
+        <v>114674</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1423116854156051</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1205912354740617</v>
+        <v>0.1193619482564183</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1700092561144343</v>
+        <v>0.1677378798281242</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>261</v>
@@ -904,19 +904,19 @@
         <v>125328</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>108171</v>
+        <v>111439</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>140863</v>
+        <v>141001</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1715661772585413</v>
+        <v>0.1715661772585414</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1480798515434483</v>
+        <v>0.1525529511239251</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1928323682309798</v>
+        <v>0.1930218858317077</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>390</v>
@@ -925,19 +925,19 @@
         <v>222619</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>199470</v>
+        <v>202034</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>247686</v>
+        <v>249861</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1574234633337543</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1410541483498377</v>
+        <v>0.1428668014807725</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.175149117082634</v>
+        <v>0.176687370975538</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>25188</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17288</v>
+        <v>16607</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38300</v>
+        <v>36782</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03684399590274828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02528773816041452</v>
+        <v>0.02429125440214955</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0560223380811334</v>
+        <v>0.05380183260234956</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -975,19 +975,19 @@
         <v>19848</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14284</v>
+        <v>14566</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27140</v>
+        <v>26512</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02717024010481644</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01955392727256491</v>
+        <v>0.01994063701281908</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03715260694537311</v>
+        <v>0.03629355767392531</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>73</v>
@@ -996,19 +996,19 @@
         <v>45036</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33832</v>
+        <v>34222</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57143</v>
+        <v>58185</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03184689494342834</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02392429603849615</v>
+        <v>0.02419980689519612</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04040841495526514</v>
+        <v>0.04114521846081601</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>560071</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>521740</v>
+        <v>520292</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>593454</v>
+        <v>594408</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5362906509114947</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4995870110610655</v>
+        <v>0.4982012171133573</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5682568539342057</v>
+        <v>0.5691695173387789</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>593</v>
@@ -1121,19 +1121,19 @@
         <v>485424</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>455526</v>
+        <v>455700</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>514928</v>
+        <v>513037</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4549154409989161</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4268965986877705</v>
+        <v>0.4270591333173437</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4825646484878899</v>
+        <v>0.4807925672271351</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1049</v>
@@ -1142,19 +1142,19 @@
         <v>1045495</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1002717</v>
+        <v>999239</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1093049</v>
+        <v>1092984</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4951651642797741</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4749045958356524</v>
+        <v>0.4732574557271857</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5176873687898869</v>
+        <v>0.5176565331407028</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>352104</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>320528</v>
+        <v>318853</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>389382</v>
+        <v>388673</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.337153540290487</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3069187194913558</v>
+        <v>0.3053148519765095</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3728488796766186</v>
+        <v>0.3721703033605019</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>583</v>
@@ -1192,19 +1192,19 @@
         <v>380912</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>355142</v>
+        <v>354266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>411345</v>
+        <v>408964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3569717005173402</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3328213324094468</v>
+        <v>0.3320002393085421</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.385491539702403</v>
+        <v>0.3832602830371266</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>936</v>
@@ -1213,19 +1213,19 @@
         <v>733016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>692803</v>
+        <v>690601</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>779034</v>
+        <v>776810</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3471692623310241</v>
+        <v>0.347169262331024</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3281237165737511</v>
+        <v>0.3270807582870412</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3689643824221397</v>
+        <v>0.3679112736238576</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>110880</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92088</v>
+        <v>89924</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130462</v>
+        <v>131575</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1061719597195236</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08817832856426297</v>
+        <v>0.08610562721589364</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1249224493793484</v>
+        <v>0.125988893407235</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>297</v>
@@ -1263,19 +1263,19 @@
         <v>178439</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159970</v>
+        <v>160542</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>200751</v>
+        <v>202394</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1672239833935458</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1499156767568751</v>
+        <v>0.150451629706009</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1881335936419277</v>
+        <v>0.1896734428219498</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>423</v>
@@ -1284,19 +1284,19 @@
         <v>289319</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>262666</v>
+        <v>261785</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>318940</v>
+        <v>319147</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1370264937495168</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1244033953867811</v>
+        <v>0.1239858471798108</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1510559008480282</v>
+        <v>0.1511537197715734</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>21288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13633</v>
+        <v>13469</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33213</v>
+        <v>33032</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.02038384907849453</v>
+        <v>0.02038384907849452</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01305401395085508</v>
+        <v>0.01289756246277112</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03180273705747241</v>
+        <v>0.0316293198535328</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>36</v>
@@ -1334,19 +1334,19 @@
         <v>22290</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15586</v>
+        <v>16077</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31200</v>
+        <v>31298</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.02088887509019786</v>
+        <v>0.02088887509019785</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01460657561129553</v>
+        <v>0.01506631007049322</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0292389817058719</v>
+        <v>0.02933067032924776</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -1355,19 +1355,19 @@
         <v>43577</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32828</v>
+        <v>33782</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57161</v>
+        <v>58640</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02063907963968495</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01554774152781436</v>
+        <v>0.01599958614004702</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02707240992468887</v>
+        <v>0.02777303644244872</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>416941</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>383665</v>
+        <v>385690</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>447437</v>
+        <v>449739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5203825793741312</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4788513874739526</v>
+        <v>0.4813785775318315</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5584443897703734</v>
+        <v>0.5613177995584981</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -1480,19 +1480,19 @@
         <v>360719</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334518</v>
+        <v>333754</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>388162</v>
+        <v>389198</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4457778097973517</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.413397588028784</v>
+        <v>0.4124533080973856</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4796912193753716</v>
+        <v>0.4809713888578829</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>760</v>
@@ -1501,19 +1501,19 @@
         <v>777660</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>732522</v>
+        <v>734419</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>819667</v>
+        <v>819802</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4828955460951776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4548667819077138</v>
+        <v>0.4560446636590577</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5089800844902558</v>
+        <v>0.5090635710780135</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>289016</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>262550</v>
+        <v>258629</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>321754</v>
+        <v>320921</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3607201411113379</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.327687386703145</v>
+        <v>0.3227946121162893</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4015803114890723</v>
+        <v>0.4005405569201437</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>471</v>
@@ -1551,19 +1551,19 @@
         <v>344383</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>317601</v>
+        <v>317015</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>371751</v>
+        <v>370904</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4255887216164012</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3924924504010324</v>
+        <v>0.3917682032113416</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4594110377278674</v>
+        <v>0.4583637995549624</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>724</v>
@@ -1572,19 +1572,19 @@
         <v>633399</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>594438</v>
+        <v>593810</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>673990</v>
+        <v>678760</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.39331498256647</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.369121873447666</v>
+        <v>0.3687322021979591</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4185202819615025</v>
+        <v>0.421482370670724</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>83019</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65072</v>
+        <v>63869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102087</v>
+        <v>103528</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1036152994369966</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08121567403809492</v>
+        <v>0.07971476515540479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1274149099275517</v>
+        <v>0.1292133493963553</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>127</v>
@@ -1622,19 +1622,19 @@
         <v>93469</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78213</v>
+        <v>78040</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111125</v>
+        <v>111572</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1155093479488292</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09665547362632547</v>
+        <v>0.09644239777584429</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1373290498347907</v>
+        <v>0.1378808667304175</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>210</v>
@@ -1643,19 +1643,19 @@
         <v>176488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>151772</v>
+        <v>153224</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>204875</v>
+        <v>202780</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1095917617317522</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09424400013871494</v>
+        <v>0.09514608448320952</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1272193603709385</v>
+        <v>0.1259181483962197</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>12244</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5703</v>
+        <v>5971</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26828</v>
+        <v>26141</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01528198007753419</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.007117762884681605</v>
+        <v>0.007452671921779175</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03348365760733828</v>
+        <v>0.0326265381709193</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1693,19 +1693,19 @@
         <v>10620</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6376</v>
+        <v>5992</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17059</v>
+        <v>17092</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01312412063741797</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.007880008466867667</v>
+        <v>0.00740493667773379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02108144903971332</v>
+        <v>0.02112239551814099</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1714,19 +1714,19 @@
         <v>22864</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14566</v>
+        <v>14132</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36019</v>
+        <v>37015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01419770960660014</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009045015433376663</v>
+        <v>0.008775515260275769</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0223664596670047</v>
+        <v>0.0229846711519781</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>434227</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>397775</v>
+        <v>398813</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>464357</v>
+        <v>464416</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4393505196473501</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4024684573583936</v>
+        <v>0.4035181368503997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4698360006145003</v>
+        <v>0.4698956109435845</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>550</v>
@@ -1839,19 +1839,19 @@
         <v>425827</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>397083</v>
+        <v>398130</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>457803</v>
+        <v>456932</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3811570284496733</v>
+        <v>0.3811570284496734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3554281691527277</v>
+        <v>0.3563654659471191</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4097790825839118</v>
+        <v>0.4089995258368354</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>952</v>
@@ -1860,19 +1860,19 @@
         <v>860054</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>817825</v>
+        <v>815139</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>904054</v>
+        <v>907794</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4084730826233849</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3884171395461419</v>
+        <v>0.3871413676777027</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4293706317438651</v>
+        <v>0.4311465142171682</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>398252</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>372318</v>
+        <v>368358</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>435786</v>
+        <v>431473</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4029508586005446</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3767105416434453</v>
+        <v>0.3727044773310224</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4409277979716659</v>
+        <v>0.4365634378325967</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>668</v>
@@ -1910,19 +1910,19 @@
         <v>467259</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>437776</v>
+        <v>435248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>499305</v>
+        <v>494508</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4182426788736225</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3918532137430236</v>
+        <v>0.3895897772040902</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4469277720169834</v>
+        <v>0.4426332594289453</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1091</v>
@@ -1931,19 +1931,19 @@
         <v>865511</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>825342</v>
+        <v>816264</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>908717</v>
+        <v>908365</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4110646907103908</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3919869911618372</v>
+        <v>0.3876755732701408</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4315848305305242</v>
+        <v>0.4314180837439637</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>136419</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>116192</v>
+        <v>116406</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>160357</v>
+        <v>158227</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.138028307105988</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1175624890108629</v>
+        <v>0.1177796696831734</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1622494595519513</v>
+        <v>0.160094110366859</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>294</v>
@@ -1981,19 +1981,19 @@
         <v>192992</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>174787</v>
+        <v>173328</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>218089</v>
+        <v>217195</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1727470947749412</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1564516947032362</v>
+        <v>0.1551454411773686</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1952112730016209</v>
+        <v>0.1944110375590448</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>449</v>
@@ -2002,19 +2002,19 @@
         <v>329411</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>298583</v>
+        <v>299156</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>359176</v>
+        <v>361650</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1564500782995218</v>
+        <v>0.1564500782995217</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1418085910873481</v>
+        <v>0.1420806607494146</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1705864685747025</v>
+        <v>0.1717617637220607</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>19441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12614</v>
+        <v>12413</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28321</v>
+        <v>27747</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01967031464611727</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01276331571613033</v>
+        <v>0.01255906042566093</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02865532952708304</v>
+        <v>0.02807389338506959</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -2052,19 +2052,19 @@
         <v>31117</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23118</v>
+        <v>23045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41981</v>
+        <v>40430</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02785319790176288</v>
+        <v>0.02785319790176289</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02069329176261399</v>
+        <v>0.0206276166267352</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03757678495709318</v>
+        <v>0.03618909832028006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -2073,19 +2073,19 @@
         <v>50558</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>38963</v>
+        <v>40066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63560</v>
+        <v>64741</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02401214836670258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0185048418692093</v>
+        <v>0.01902869943357395</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03018704714060989</v>
+        <v>0.03074798384467198</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>1722901</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1659059</v>
+        <v>1657463</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1790580</v>
+        <v>1787546</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4898015842938493</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4716518758895011</v>
+        <v>0.4711983487104291</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.509042042408299</v>
+        <v>0.5081793174873076</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2007</v>
@@ -2198,19 +2198,19 @@
         <v>1576356</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1520018</v>
+        <v>1522864</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1634795</v>
+        <v>1632707</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4233028854259462</v>
+        <v>0.4233028854259463</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.408174245873583</v>
+        <v>0.4089385285418038</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4389955214757447</v>
+        <v>0.4384348143400041</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3478</v>
@@ -2219,19 +2219,19 @@
         <v>3299257</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3217152</v>
+        <v>3208278</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3392503</v>
+        <v>3382539</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.455604570909813</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4442664367377671</v>
+        <v>0.4430409025471707</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4684811582551504</v>
+        <v>0.4671052287107876</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>1288878</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1230161</v>
+        <v>1223144</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1354209</v>
+        <v>1351898</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3664137578432983</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3497209896667388</v>
+        <v>0.347726319771278</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3849865000339552</v>
+        <v>0.3843296191900753</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2217</v>
@@ -2269,19 +2269,19 @@
         <v>1473485</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1418108</v>
+        <v>1419448</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1526541</v>
+        <v>1526370</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.3956785810113224</v>
+        <v>0.3956785810113225</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3808080752067071</v>
+        <v>0.3811680030627123</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.409925853168816</v>
+        <v>0.4098799484086413</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3526</v>
@@ -2290,19 +2290,19 @@
         <v>2762363</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2677137</v>
+        <v>2680510</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2842462</v>
+        <v>2847477</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.381463218458255</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3696940421524377</v>
+        <v>0.3701598590030635</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3925243115471798</v>
+        <v>0.3932168243327557</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>427608</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>391757</v>
+        <v>390962</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>471499</v>
+        <v>466057</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1215642950599254</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1113722451099102</v>
+        <v>0.1111462091205935</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1340420035695598</v>
+        <v>0.1324946872778867</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>979</v>
@@ -2340,19 +2340,19 @@
         <v>590228</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>554556</v>
+        <v>551093</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>628831</v>
+        <v>628209</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1584954159201379</v>
+        <v>0.158495415920138</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.14891637589799</v>
+        <v>0.1479864011040385</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1688615475368588</v>
+        <v>0.1686945757477165</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1472</v>
@@ -2361,19 +2361,19 @@
         <v>1017836</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>968769</v>
+        <v>961601</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1073317</v>
+        <v>1074968</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1405561558909609</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1337802288780847</v>
+        <v>0.132790464712072</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.148217646294324</v>
+        <v>0.1484455985083964</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>78161</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>62023</v>
+        <v>61564</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>97687</v>
+        <v>99593</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02222036280292707</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01763237119354981</v>
+        <v>0.01750185178703677</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02777133963480899</v>
+        <v>0.02831321489880912</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>141</v>
@@ -2411,19 +2411,19 @@
         <v>83875</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>71771</v>
+        <v>70602</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>100122</v>
+        <v>99600</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.02252311764259336</v>
+        <v>0.02252311764259337</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01927284560774403</v>
+        <v>0.01895883311388915</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02688596785029971</v>
+        <v>0.02674576183650459</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>229</v>
@@ -2432,19 +2432,19 @@
         <v>162036</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>139448</v>
+        <v>139084</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>184340</v>
+        <v>186828</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0223760547409711</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01925676525193176</v>
+        <v>0.01920654007281355</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02545612512947896</v>
+        <v>0.02579962363419348</v>
       </c>
     </row>
     <row r="28">
